--- a/Mappings/FreedomrestrictingMeasures - STU3.xlsx
+++ b/Mappings/FreedomrestrictingMeasures - STU3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="157">
   <si>
     <t>Concept</t>
   </si>
@@ -507,12 +507,30 @@
   <si>
     <t>procedure.extension.legallyCapable.comment</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">225214000 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF086D11"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>|verrichting met betrekking tot beheersing, inperking, afzondering of isolatie (verrichting)</t>
+    </r>
+  </si>
+  <si>
+    <t>Use of 225214000 |verrichting met betrekking tot beheersing, inperking, afzondering of isolatie (verrichting) for category code</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
@@ -567,6 +585,20 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF086D11"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="6">
@@ -661,7 +693,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -732,18 +764,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1060,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1144,6 +1183,9 @@
       <c r="M3" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="N3" s="30" t="s">
+        <v>155</v>
+      </c>
       <c r="O3" s="4"/>
       <c r="P3" s="20" t="s">
         <v>145</v>
@@ -1172,7 +1214,7 @@
       <c r="K4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="24" t="s">
         <v>20</v>
       </c>
       <c r="M4" s="2" t="s">
@@ -1199,7 +1241,7 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="24" t="s">
         <v>25</v>
       </c>
       <c r="I5" s="2" t="s">
@@ -1211,7 +1253,7 @@
       <c r="K5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="24" t="s">
         <v>28</v>
       </c>
       <c r="M5" s="2" t="s">
@@ -1229,14 +1271,14 @@
     </row>
     <row r="6" spans="2:18" ht="51">
       <c r="B6" s="12"/>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="29" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="24" t="s">
         <v>31</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -1248,7 +1290,7 @@
       <c r="K6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="24" t="s">
         <v>33</v>
       </c>
       <c r="M6" s="2" t="s">
@@ -1307,22 +1349,22 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="26" t="s">
+      <c r="K8" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="26" t="s">
+      <c r="L8" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="M8" s="26" t="s">
+      <c r="M8" s="25" t="s">
         <v>46</v>
       </c>
       <c r="N8" s="27" t="s">
@@ -1331,11 +1373,13 @@
       <c r="O8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="25" t="s">
+      <c r="P8" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="26"/>
+      <c r="Q8" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="R8" s="25"/>
     </row>
     <row r="9" spans="2:18">
       <c r="B9" s="12"/>
@@ -1344,19 +1388,19 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
       <c r="O9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="P9" s="25"/>
+      <c r="P9" s="26"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="26"/>
+      <c r="R9" s="25"/>
     </row>
     <row r="10" spans="2:18" ht="25.5">
       <c r="B10" s="12"/>
@@ -1367,25 +1411,25 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="14"/>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="26" t="s">
+      <c r="K10" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="26" t="s">
+      <c r="L10" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="M10" s="26" t="s">
+      <c r="M10" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="N10" s="26" t="s">
+      <c r="N10" s="25" t="s">
         <v>54</v>
       </c>
       <c r="O10" s="3" t="s">
@@ -1395,7 +1439,7 @@
         <v>146</v>
       </c>
       <c r="Q10" s="19"/>
-      <c r="R10" s="26"/>
+      <c r="R10" s="25"/>
     </row>
     <row r="11" spans="2:18">
       <c r="B11" s="12"/>
@@ -1404,19 +1448,19 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="14"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
       <c r="O11" s="3" t="s">
         <v>56</v>
       </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="26"/>
+      <c r="R11" s="25"/>
     </row>
     <row r="12" spans="2:18">
       <c r="B12" s="12"/>
@@ -1490,16 +1534,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="N10:N11"/>
     <mergeCell ref="R10:R11"/>
@@ -1507,6 +1541,16 @@
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="K8:K9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="R8:R9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="O4" location="JuridischeStatusCodelijst!A1" display="JuridischeStatusCodelijst"/>
@@ -1541,15 +1585,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:7">
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24" t="s">
+      <c r="D3" s="28"/>
+      <c r="E3" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="3:7">
       <c r="C4" s="18" t="s">
@@ -1620,15 +1664,15 @@
       </c>
     </row>
     <row r="10" spans="3:7">
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24" t="s">
+      <c r="D10" s="28"/>
+      <c r="E10" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
     </row>
     <row r="11" spans="3:7">
       <c r="C11" s="18" t="s">
@@ -1750,15 +1794,15 @@
       </c>
     </row>
     <row r="19" spans="3:7">
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24" t="s">
+      <c r="D19" s="28"/>
+      <c r="E19" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
     </row>
     <row r="20" spans="3:7">
       <c r="C20" s="18" t="s">
@@ -1982,15 +2026,15 @@
       </c>
     </row>
     <row r="34" spans="3:7">
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24" t="s">
+      <c r="D34" s="28"/>
+      <c r="E34" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
     </row>
     <row r="35" spans="3:7">
       <c r="C35" s="18" t="s">
@@ -2112,15 +2156,15 @@
       </c>
     </row>
     <row r="43" spans="3:7">
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24" t="s">
+      <c r="D43" s="28"/>
+      <c r="E43" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
     </row>
     <row r="44" spans="3:7">
       <c r="C44" s="18" t="s">

--- a/Mappings/FreedomrestrictingMeasures - STU3.xlsx
+++ b/Mappings/FreedomrestrictingMeasures - STU3.xlsx
@@ -1099,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1220,7 +1220,7 @@
       <c r="M4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="24" t="s">
         <v>22</v>
       </c>
       <c r="O4" s="3" t="s">
@@ -1361,7 +1361,7 @@
       <c r="K8" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="25" t="s">
+      <c r="L8" s="27" t="s">
         <v>45</v>
       </c>
       <c r="M8" s="25" t="s">
